--- a/Doc/term.xlsx
+++ b/Doc/term.xlsx
@@ -1,27 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2EB628-AF25-4FFF-BD60-382B8C979054}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="3375" windowWidth="21600" windowHeight="11370" xr2:uid="{E08DA177-157E-406D-9A09-475708B22981}"/>
+    <workbookView windowWidth="28455" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="term" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -361,33 +350,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -395,9 +719,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -406,17 +972,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,7 +1075,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -498,26 +1108,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -550,23 +1143,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,29 +1284,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4142FB-3417-4733-9AC4-6C9A10EFAB03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -752,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -763,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -774,7 +1347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -785,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -796,7 +1369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -807,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -818,7 +1391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -829,7 +1402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -840,7 +1413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -851,7 +1424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -862,7 +1435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -873,7 +1446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -884,7 +1457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -895,7 +1468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -906,7 +1479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -917,7 +1490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -928,7 +1501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -939,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -950,7 +1523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -961,7 +1534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -972,7 +1545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -983,7 +1556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -994,7 +1567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1005,7 +1578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1016,7 +1589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1027,7 +1600,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1038,7 +1611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1049,7 +1622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1060,7 +1633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" customHeight="1" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1071,7 +1644,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" customHeight="1" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1082,7 +1655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" customHeight="1" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1093,7 +1666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" customHeight="1" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1104,7 +1677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" customHeight="1" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1115,7 +1688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" customHeight="1" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1126,7 +1699,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" customHeight="1" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1137,7 +1710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" customHeight="1" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1148,7 +1721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" customHeight="1" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1159,7 +1732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" customHeight="1" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1170,7 +1743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" customHeight="1" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1181,7 +1754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" customHeight="1" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1192,7 +1765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" customHeight="1" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1203,7 +1776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" customHeight="1" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1214,7 +1787,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" customHeight="1" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1222,7 +1795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customHeight="1" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1233,7 +1806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customHeight="1" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1244,7 +1817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customHeight="1" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1255,7 +1828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customHeight="1" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1266,7 +1839,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customHeight="1" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1277,7 +1850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customHeight="1" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1288,7 +1861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" customHeight="1" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1299,7 +1872,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customHeight="1" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1310,7 +1883,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1321,7 +1894,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customHeight="1" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1333,20 +1906,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C116318-8371-444A-8A21-5C0FEEC569FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>